--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,259 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>jhjggfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12214124</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13234235</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sadfasf</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>213124</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>123214</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24124</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>fsdffsd</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13124</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>teste@Gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>221312</t>
         </is>
       </c>
     </row>

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
@@ -88,16 +88,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -451,27 +452,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_empresa</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>empresa_nome</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>empresa_cnpj</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>empresa_email</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>empresa_senha</t>
         </is>
@@ -479,44 +480,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>papa</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1233</v>
+        <v>213423</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>teste@gmail.com</t>
+          <t>ososos@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>123</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>papa</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213423</v>
+        <v>1233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ososos@gmail.com</t>
+          <t>teste@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -924,17 +925,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_login</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>login_auth</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
@@ -982,17 +983,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_user</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>user_type</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>user_name</t>
         </is>
@@ -1031,17 +1032,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_login</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>login_auth</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>cod_user_FK</t>
         </is>
@@ -1069,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,22 +1079,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_score</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>score_total</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>score_data</t>
         </is>
@@ -1109,8 +1110,22 @@
       <c r="C2" t="n">
         <v>130</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>45952</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45964</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,32 +1148,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_respDiaria</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>cod_pergunta_FK</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>respDiaria_data</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>respDiaria_texto</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>respDiaria_pontuacao</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
@@ -1171,7 +1186,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D2" t="n">
@@ -1191,7 +1206,7 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D3" t="n">
@@ -1211,7 +1226,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D4" t="n">
@@ -1231,7 +1246,7 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D5" t="n">
@@ -1251,7 +1266,7 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D6" t="n">
@@ -1271,7 +1286,7 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D7" t="n">
@@ -1291,7 +1306,7 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D8" t="n">
@@ -1311,7 +1326,7 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D9" t="n">
@@ -1331,7 +1346,7 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D10" t="n">
@@ -1351,7 +1366,7 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D11" t="n">
@@ -1371,7 +1386,7 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D12" t="n">
@@ -1391,7 +1406,7 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <v>45952</v>
       </c>
       <c r="D13" t="n">
@@ -1402,6 +1417,46 @@
       </c>
       <c r="F13" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1424,22 +1479,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_pergunta</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>pergunta_texto</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>cod_categoria</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>pergunta_peso</t>
         </is>
@@ -1657,12 +1712,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>cod_categoria</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>categoria_nome</t>
         </is>

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +25,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +43,14 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -88,18 +97,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,6 +1137,34 @@
       </c>
       <c r="D3" s="6" t="n">
         <v>45964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45965</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,6 +1495,286 @@
         <v>20</v>
       </c>
       <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
     </row>

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="2940" windowWidth="21195" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,9 +29,9 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,14 +43,6 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -97,14 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +454,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_empresa</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>empresa_nome</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>empresa_cnpj</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>empresa_email</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>empresa_senha</t>
         </is>
@@ -913,6 +904,29 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>221312</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>gustavoempresa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>257532412</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gu@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -927,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +950,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_login</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>login_auth</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
@@ -968,10 +982,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -994,17 +1019,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_user</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>user_type</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>user_name</t>
         </is>
@@ -1043,17 +1068,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_login</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>login_auth</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>cod_user_FK</t>
         </is>
@@ -1081,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,22 +1115,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_score</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>score_total</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>score_data</t>
         </is>
@@ -1121,7 +1146,7 @@
       <c r="C2" t="n">
         <v>130</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1135,7 +1160,7 @@
       <c r="C3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>45964</v>
       </c>
     </row>
@@ -1149,7 +1174,7 @@
       <c r="C4" t="n">
         <v>115</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1163,7 +1188,21 @@
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1178,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,32 +1226,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_respDiaria</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>cod_pergunta_FK</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>respDiaria_data</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>respDiaria_texto</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>respDiaria_pontuacao</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>cod_empresa_FK</t>
         </is>
@@ -1225,7 +1264,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D2" t="n">
@@ -1245,7 +1284,7 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D3" t="n">
@@ -1265,7 +1304,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D4" t="n">
@@ -1285,7 +1324,7 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D5" t="n">
@@ -1305,7 +1344,7 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D6" t="n">
@@ -1325,7 +1364,7 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D7" t="n">
@@ -1345,7 +1384,7 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D8" t="n">
@@ -1365,7 +1404,7 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D9" t="n">
@@ -1385,7 +1424,7 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D10" t="n">
@@ -1405,7 +1444,7 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D11" t="n">
@@ -1425,7 +1464,7 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D12" t="n">
@@ -1445,7 +1484,7 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D13" t="n">
@@ -1465,7 +1504,7 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>45964</v>
       </c>
       <c r="D14" t="n">
@@ -1485,7 +1524,7 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>45964</v>
       </c>
       <c r="D15" t="n">
@@ -1505,7 +1544,7 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D16" t="n">
@@ -1525,7 +1564,7 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D17" t="n">
@@ -1545,7 +1584,7 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D18" t="n">
@@ -1565,7 +1604,7 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D19" t="n">
@@ -1585,7 +1624,7 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D20" t="n">
@@ -1605,7 +1644,7 @@
       <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D21" t="n">
@@ -1625,7 +1664,7 @@
       <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D22" t="n">
@@ -1645,7 +1684,7 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D23" t="n">
@@ -1665,7 +1704,7 @@
       <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D24" t="n">
@@ -1685,7 +1724,7 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D25" t="n">
@@ -1705,7 +1744,7 @@
       <c r="B26" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D26" t="n">
@@ -1725,7 +1764,7 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D27" t="n">
@@ -1745,7 +1784,7 @@
       <c r="B28" t="n">
         <v>11</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D28" t="n">
@@ -1765,7 +1804,7 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D29" t="n">
@@ -1776,6 +1815,246 @@
       </c>
       <c r="F29" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>43</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1798,22 +2077,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_pergunta</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>pergunta_texto</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>cod_categoria</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>pergunta_peso</t>
         </is>
@@ -2031,12 +2310,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>cod_categoria</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>categoria_nome</t>
         </is>

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -29,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
@@ -1146,7 +1146,7 @@
       <c r="C2" t="n">
         <v>130</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="5" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="C3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="5" t="n">
         <v>45964</v>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       <c r="C4" t="n">
         <v>115</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="5" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="5" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="5" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D2" t="n">
@@ -1284,7 +1284,7 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D3" t="n">
@@ -1304,7 +1304,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D4" t="n">
@@ -1324,7 +1324,7 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D5" t="n">
@@ -1344,7 +1344,7 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D6" t="n">
@@ -1364,7 +1364,7 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D7" t="n">
@@ -1384,7 +1384,7 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D8" t="n">
@@ -1404,7 +1404,7 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D9" t="n">
@@ -1424,7 +1424,7 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D10" t="n">
@@ -1444,7 +1444,7 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D11" t="n">
@@ -1464,7 +1464,7 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D12" t="n">
@@ -1484,7 +1484,7 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="5" t="n">
         <v>45952</v>
       </c>
       <c r="D13" t="n">
@@ -1504,7 +1504,7 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="5" t="n">
         <v>45964</v>
       </c>
       <c r="D14" t="n">
@@ -1524,7 +1524,7 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="5" t="n">
         <v>45964</v>
       </c>
       <c r="D15" t="n">
@@ -1544,7 +1544,7 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D16" t="n">
@@ -1564,7 +1564,7 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D17" t="n">
@@ -1584,7 +1584,7 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D18" t="n">
@@ -1604,7 +1604,7 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D19" t="n">
@@ -1624,7 +1624,7 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D20" t="n">
@@ -1644,7 +1644,7 @@
       <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D21" t="n">
@@ -1664,7 +1664,7 @@
       <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D22" t="n">
@@ -1684,7 +1684,7 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D23" t="n">
@@ -1704,7 +1704,7 @@
       <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D24" t="n">
@@ -1724,7 +1724,7 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D25" t="n">
@@ -1744,7 +1744,7 @@
       <c r="B26" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D26" t="n">
@@ -1764,7 +1764,7 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D27" t="n">
@@ -1784,7 +1784,7 @@
       <c r="B28" t="n">
         <v>11</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D28" t="n">
@@ -1804,7 +1804,7 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D29" t="n">
@@ -1824,7 +1824,7 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D30" t="n">
@@ -1844,7 +1844,7 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D31" t="n">
@@ -1864,7 +1864,7 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D32" t="n">
@@ -1884,7 +1884,7 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D33" t="n">
@@ -1904,7 +1904,7 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D34" t="n">
@@ -1924,7 +1924,7 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D35" t="n">
@@ -1944,7 +1944,7 @@
       <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D36" t="n">
@@ -1964,7 +1964,7 @@
       <c r="B37" t="n">
         <v>8</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D37" t="n">
@@ -1984,7 +1984,7 @@
       <c r="B38" t="n">
         <v>9</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D38" t="n">
@@ -2004,7 +2004,7 @@
       <c r="B39" t="n">
         <v>10</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D39" t="n">
@@ -2024,7 +2024,7 @@
       <c r="B40" t="n">
         <v>11</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D40" t="n">
@@ -2044,7 +2044,7 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="5" t="n">
         <v>45965</v>
       </c>
       <c r="D41" t="n">

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>

--- a/iara/database/banco.xlsx
+++ b/iara/database/banco.xlsx
@@ -29,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +925,29 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GuGa</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>27853465873</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gus253@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -941,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -997,6 +1020,17 @@
       </c>
       <c r="C4" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,7 +1180,7 @@
       <c r="C2" t="n">
         <v>130</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="7" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1160,7 +1194,7 @@
       <c r="C3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>45964</v>
       </c>
     </row>
@@ -1174,7 +1208,7 @@
       <c r="C4" t="n">
         <v>115</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1188,7 +1222,7 @@
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="7" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1202,7 +1236,21 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <v>45965</v>
       </c>
     </row>
@@ -1217,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1312,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D2" t="n">
@@ -1284,7 +1332,7 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D3" t="n">
@@ -1304,7 +1352,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D4" t="n">
@@ -1324,7 +1372,7 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D5" t="n">
@@ -1344,7 +1392,7 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D6" t="n">
@@ -1364,7 +1412,7 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D7" t="n">
@@ -1384,7 +1432,7 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D8" t="n">
@@ -1404,7 +1452,7 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D9" t="n">
@@ -1424,7 +1472,7 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D10" t="n">
@@ -1444,7 +1492,7 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D11" t="n">
@@ -1464,7 +1512,7 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D12" t="n">
@@ -1484,7 +1532,7 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="7" t="n">
         <v>45952</v>
       </c>
       <c r="D13" t="n">
@@ -1504,7 +1552,7 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="7" t="n">
         <v>45964</v>
       </c>
       <c r="D14" t="n">
@@ -1524,7 +1572,7 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="7" t="n">
         <v>45964</v>
       </c>
       <c r="D15" t="n">
@@ -1544,7 +1592,7 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D16" t="n">
@@ -1564,7 +1612,7 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D17" t="n">
@@ -1584,7 +1632,7 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D18" t="n">
@@ -1604,7 +1652,7 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D19" t="n">
@@ -1624,7 +1672,7 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D20" t="n">
@@ -1644,7 +1692,7 @@
       <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D21" t="n">
@@ -1664,7 +1712,7 @@
       <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D22" t="n">
@@ -1684,7 +1732,7 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D23" t="n">
@@ -1704,7 +1752,7 @@
       <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D24" t="n">
@@ -1724,7 +1772,7 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D25" t="n">
@@ -1744,7 +1792,7 @@
       <c r="B26" t="n">
         <v>9</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D26" t="n">
@@ -1764,7 +1812,7 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D27" t="n">
@@ -1784,7 +1832,7 @@
       <c r="B28" t="n">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D28" t="n">
@@ -1804,7 +1852,7 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D29" t="n">
@@ -1824,7 +1872,7 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D30" t="n">
@@ -1844,7 +1892,7 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D31" t="n">
@@ -1864,7 +1912,7 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D32" t="n">
@@ -1884,7 +1932,7 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D33" t="n">
@@ -1904,7 +1952,7 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D34" t="n">
@@ -1924,7 +1972,7 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D35" t="n">
@@ -1944,7 +1992,7 @@
       <c r="B36" t="n">
         <v>7</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D36" t="n">
@@ -1964,7 +2012,7 @@
       <c r="B37" t="n">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D37" t="n">
@@ -1984,7 +2032,7 @@
       <c r="B38" t="n">
         <v>9</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D38" t="n">
@@ -2004,7 +2052,7 @@
       <c r="B39" t="n">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D39" t="n">
@@ -2024,7 +2072,7 @@
       <c r="B40" t="n">
         <v>11</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D40" t="n">
@@ -2044,7 +2092,7 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="7" t="n">
         <v>45965</v>
       </c>
       <c r="D41" t="n">
@@ -2055,6 +2103,246 @@
       </c>
       <c r="F41" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>46</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>48</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>49</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54</v>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
